--- a/data/imputed/Congressional Election Results by State (2020 - 117th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2020 - 117th) IMPUTED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C6753-E4C5-D341-9A88-FF76013C7967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D5037-45C9-4D42-9A8E-1C5A678C2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="580" windowWidth="27500" windowHeight="17420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="580" windowWidth="27500" windowHeight="17420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -47,6 +47,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B9301EB0-B68E-E345-B1CE-1F112063A8AE}</author>
+  </authors>
+  <commentList>
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{B9301EB0-B68E-E345-B1CE-1F112063A8AE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    One uncontested district. Use Presidential total as a proxy.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="188">
   <si>
@@ -622,7 +640,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -695,8 +713,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +859,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1001,6 +1031,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1025,6 +1056,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alec Ramsay" id="{BFB7C5E9-D75C-0948-BA40-2A17D1A5662A}" userId="b12d4a08514a1462" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2662,7 +2699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EF1F87D-173E-4549-BBF0-C107EF6CFF11}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EF1F87D-173E-4549-BBF0-C107EF6CFF11}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3298,15 +3335,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J43" dT="2021-12-28T14:22:02.41" personId="{BFB7C5E9-D75C-0948-BA40-2A17D1A5662A}" id="{B9301EB0-B68E-E345-B1CE-1F112063A8AE}">
+    <text>One uncontested district. Use Presidential total as a proxy.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:X52"/>
+      <selection pane="bottomRight" activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6822,9 +6867,8 @@
       <c r="I43" s="64">
         <v>0</v>
       </c>
-      <c r="J43" s="65">
-        <f>G43</f>
-        <v>397732</v>
+      <c r="J43" s="115">
+        <v>422609</v>
       </c>
       <c r="K43" s="100">
         <v>0</v>
@@ -7920,6 +7964,7 @@
   <ignoredErrors>
     <ignoredError sqref="W3:X52" unlockedFormula="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7928,11 +7973,11 @@
   <dimension ref="A1:V196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P3" sqref="P3:P65"/>
       <selection pane="topRight" activeCell="P3" sqref="P3:P65"/>
       <selection pane="bottomLeft" activeCell="P3" sqref="P3:P65"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3:P65"/>
+      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12224,9 +12269,9 @@
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="M56" s="49">
+      <c r="M56" s="115">
         <f>VLOOKUP(B56,'Election Results by State'!$B$3:$J$52,9,FALSE)</f>
-        <v>397732</v>
+        <v>422609</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" si="3"/>
@@ -15783,8 +15828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ED2D77-6316-B445-8323-5E9749112A62}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P65"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/imputed/Congressional Election Results by State (2020 - 117th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2020 - 117th) IMPUTED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AA144B-CEE4-594E-AC8F-E4E53F537D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55459026-1523-054A-9921-A4029F9BD679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="7700" windowWidth="27500" windowHeight="17420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -855,7 +855,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -971,6 +971,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -2638,7 +2639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EF1F87D-173E-4549-BBF0-C107EF6CFF11}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EF1F87D-173E-4549-BBF0-C107EF6CFF11}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7901,11 +7902,11 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P3" sqref="P3:P65"/>
       <selection pane="topRight" activeCell="P3" sqref="P3:P65"/>
       <selection pane="bottomLeft" activeCell="P3" sqref="P3:P65"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10285,7 +10286,7 @@
       <c r="G32" s="3">
         <v>372716</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="68">
         <v>1</v>
       </c>
       <c r="I32">
@@ -10361,7 +10362,7 @@
       <c r="G33" s="3">
         <v>388210</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="68">
         <v>1</v>
       </c>
       <c r="I33">
@@ -10437,7 +10438,7 @@
       <c r="G34" s="3">
         <v>326837</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="68">
         <v>1</v>
       </c>
       <c r="I34">
@@ -10513,7 +10514,7 @@
       <c r="G35" s="3">
         <v>433545</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="68">
         <v>1</v>
       </c>
       <c r="I35">
@@ -12966,7 +12967,6 @@
       <c r="U79" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:J65" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/imputed/Congressional Election Results by State (2020 - 117th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2020 - 117th) IMPUTED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55459026-1523-054A-9921-A4029F9BD679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DCEE3-BD25-6C47-BBB2-1022176D36E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -3287,11 +3287,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3310,7 +3310,7 @@
     <col min="19" max="19" width="5.83203125" style="17" customWidth="1"/>
     <col min="20" max="22" width="5.83203125" customWidth="1"/>
     <col min="23" max="23" width="10.83203125" style="62"/>
-    <col min="24" max="24" width="10.83203125" style="63"/>
+    <col min="24" max="24" width="11.1640625" style="63" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="46.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3513,8 +3513,8 @@
         <v>0.64440344633986135</v>
       </c>
       <c r="X3" s="61">
-        <f>S3/SUM(S3:T3)</f>
-        <v>0.8571428571428571</v>
+        <f>'Election Results by State'!E35</f>
+        <v>33374</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -7891,7 +7891,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="W3:X52" unlockedFormula="1"/>
+    <ignoredError sqref="W4:X52 W3" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -7901,12 +7901,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P3" sqref="P3:P65"/>
       <selection pane="topRight" activeCell="P3" sqref="P3:P65"/>
       <selection pane="bottomLeft" activeCell="P3" sqref="P3:P65"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32:H35"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
